--- a/files/29_11_2022/route_number_1.xlsx
+++ b/files/29_11_2022/route_number_1.xlsx
@@ -435,1046 +435,1046 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>406509</v>
+        <v>606533</v>
       </c>
       <c r="B2">
-        <v>406597</v>
+        <v>606536</v>
       </c>
       <c r="C2">
-        <v>37.46033676</v>
+        <v>37.90373657</v>
       </c>
       <c r="D2">
-        <v>55.70291267</v>
+        <v>55.2752139</v>
       </c>
       <c r="E2">
-        <v>37.51358889</v>
+        <v>37.8309775</v>
       </c>
       <c r="F2">
-        <v>55.68004215</v>
+        <v>55.2734708</v>
       </c>
       <c r="G2">
-        <v>19.87</v>
+        <v>25.4</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>9.869999999999997</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>406597</v>
+        <v>606536</v>
       </c>
       <c r="B3">
-        <v>634745</v>
+        <v>687671</v>
       </c>
       <c r="C3">
-        <v>37.51358889</v>
+        <v>37.8309775</v>
       </c>
       <c r="D3">
-        <v>55.68004215</v>
+        <v>55.2734708</v>
       </c>
       <c r="E3">
-        <v>37.59510725</v>
+        <v>37.76888725</v>
       </c>
       <c r="F3">
-        <v>55.67487417</v>
+        <v>55.40069077</v>
       </c>
       <c r="G3">
-        <v>20.36</v>
+        <v>27.71</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>10.36</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>634745</v>
+        <v>687671</v>
       </c>
       <c r="B4">
-        <v>607792</v>
+        <v>634873</v>
       </c>
       <c r="C4">
-        <v>37.59510725</v>
+        <v>37.76888725</v>
       </c>
       <c r="D4">
-        <v>55.67487417</v>
+        <v>55.40069077</v>
       </c>
       <c r="E4">
-        <v>37.6784782</v>
+        <v>37.80494926</v>
       </c>
       <c r="F4">
-        <v>55.68439114</v>
+        <v>55.39807174</v>
       </c>
       <c r="G4">
-        <v>20.19</v>
+        <v>15.55</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>10.19</v>
+        <v>5.550000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>607792</v>
+        <v>634873</v>
       </c>
       <c r="B5">
-        <v>629725</v>
+        <v>606531</v>
       </c>
       <c r="C5">
-        <v>37.6784782</v>
+        <v>37.80494926</v>
       </c>
       <c r="D5">
-        <v>55.68439114</v>
+        <v>55.39807174</v>
       </c>
       <c r="E5">
-        <v>37.69528729</v>
+        <v>37.77204935</v>
       </c>
       <c r="F5">
-        <v>55.61685261</v>
+        <v>55.43771193</v>
       </c>
       <c r="G5">
-        <v>22.12</v>
+        <v>20.81</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>12.12</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>629725</v>
+        <v>606531</v>
       </c>
       <c r="B6">
-        <v>605378</v>
+        <v>689143</v>
       </c>
       <c r="C6">
-        <v>37.69528729</v>
+        <v>37.77204935</v>
       </c>
       <c r="D6">
-        <v>55.61685261</v>
+        <v>55.43771193</v>
       </c>
       <c r="E6">
-        <v>37.64965575</v>
+        <v>37.72729812</v>
       </c>
       <c r="F6">
-        <v>55.59059225</v>
+        <v>55.44068133</v>
       </c>
       <c r="G6">
-        <v>21.98</v>
+        <v>16.29</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>11.98</v>
+        <v>6.289999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>605378</v>
+        <v>689143</v>
       </c>
       <c r="B7">
-        <v>406145</v>
+        <v>687690</v>
       </c>
       <c r="C7">
-        <v>37.64965575</v>
+        <v>37.72729812</v>
       </c>
       <c r="D7">
-        <v>55.59059225</v>
+        <v>55.44068133</v>
       </c>
       <c r="E7">
-        <v>37.60926665</v>
+        <v>37.69250621</v>
       </c>
       <c r="F7">
-        <v>55.59638214</v>
+        <v>55.43074391</v>
       </c>
       <c r="G7">
-        <v>20.58</v>
+        <v>13.5</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>10.58</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>406145</v>
+        <v>687690</v>
       </c>
       <c r="B8">
-        <v>674406</v>
+        <v>622314</v>
       </c>
       <c r="C8">
-        <v>37.60926665</v>
+        <v>37.69250621</v>
       </c>
       <c r="D8">
-        <v>55.59638214</v>
+        <v>55.43074391</v>
       </c>
       <c r="E8">
-        <v>37.45185777</v>
+        <v>37.61956064</v>
       </c>
       <c r="F8">
-        <v>55.63440186</v>
+        <v>55.4480981</v>
       </c>
       <c r="G8">
-        <v>28.21</v>
+        <v>21.08</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8">
-        <v>18.21</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>674406</v>
+        <v>622314</v>
       </c>
       <c r="B9">
-        <v>635267</v>
+        <v>699572</v>
       </c>
       <c r="C9">
-        <v>37.45185777</v>
+        <v>37.61956064</v>
       </c>
       <c r="D9">
-        <v>55.63440186</v>
+        <v>55.4480981</v>
       </c>
       <c r="E9">
-        <v>37.08474857</v>
+        <v>37.56154602</v>
       </c>
       <c r="F9">
-        <v>55.54570489</v>
+        <v>55.5036913</v>
       </c>
       <c r="G9">
-        <v>30.94</v>
+        <v>18.08</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>20.94</v>
+        <v>8.079999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>635267</v>
+        <v>699572</v>
       </c>
       <c r="B10">
-        <v>659620</v>
+        <v>636462</v>
       </c>
       <c r="C10">
-        <v>37.08474857</v>
+        <v>37.56154602</v>
       </c>
       <c r="D10">
-        <v>55.54570489</v>
+        <v>55.5036913</v>
       </c>
       <c r="E10">
-        <v>37.08794855</v>
+        <v>37.581907</v>
       </c>
       <c r="F10">
-        <v>55.55517405</v>
+        <v>55.50582419</v>
       </c>
       <c r="G10">
-        <v>12.96</v>
+        <v>14.41</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
-        <v>2.960000000000001</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>659620</v>
+        <v>636462</v>
       </c>
       <c r="B11">
-        <v>688225</v>
+        <v>616468</v>
       </c>
       <c r="C11">
-        <v>37.08794855</v>
+        <v>37.581907</v>
       </c>
       <c r="D11">
-        <v>55.55517405</v>
+        <v>55.50582419</v>
       </c>
       <c r="E11">
-        <v>36.98193535</v>
+        <v>37.58813923</v>
       </c>
       <c r="F11">
-        <v>55.5147573</v>
+        <v>55.54777245</v>
       </c>
       <c r="G11">
-        <v>19.98</v>
+        <v>16.98</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>9.98</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>688225</v>
+        <v>616468</v>
       </c>
       <c r="B12">
-        <v>635715</v>
+        <v>637537</v>
       </c>
       <c r="C12">
-        <v>36.98193535</v>
+        <v>37.58813923</v>
       </c>
       <c r="D12">
-        <v>55.5147573</v>
+        <v>55.54777245</v>
       </c>
       <c r="E12">
-        <v>37.01201862</v>
+        <v>37.58575671</v>
       </c>
       <c r="F12">
-        <v>55.51630031</v>
+        <v>55.56245302</v>
       </c>
       <c r="G12">
-        <v>14.24</v>
+        <v>13.93</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>4.24</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>635715</v>
+        <v>637537</v>
       </c>
       <c r="B13">
-        <v>688351</v>
+        <v>637523</v>
       </c>
       <c r="C13">
-        <v>37.01201862</v>
+        <v>37.58575671</v>
       </c>
       <c r="D13">
-        <v>55.51630031</v>
+        <v>55.56245302</v>
       </c>
       <c r="E13">
-        <v>36.99396571</v>
+        <v>37.55710944</v>
       </c>
       <c r="F13">
-        <v>55.56713048</v>
+        <v>55.54666002</v>
       </c>
       <c r="G13">
-        <v>19.05</v>
+        <v>15.78</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>9.050000000000001</v>
+        <v>5.780000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>688351</v>
+        <v>637523</v>
       </c>
       <c r="B14">
-        <v>627739</v>
+        <v>406504</v>
       </c>
       <c r="C14">
-        <v>36.99396571</v>
+        <v>37.55710944</v>
       </c>
       <c r="D14">
-        <v>55.56713048</v>
+        <v>55.54666002</v>
       </c>
       <c r="E14">
-        <v>36.99315986</v>
+        <v>37.53927755</v>
       </c>
       <c r="F14">
-        <v>55.56596112</v>
+        <v>55.54571436</v>
       </c>
       <c r="G14">
-        <v>12.15</v>
+        <v>13.54</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>2.15</v>
+        <v>3.539999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>627739</v>
+        <v>406504</v>
       </c>
       <c r="B15">
-        <v>689116</v>
+        <v>688383</v>
       </c>
       <c r="C15">
-        <v>36.99315986</v>
+        <v>37.53927755</v>
       </c>
       <c r="D15">
-        <v>55.56596112</v>
+        <v>55.54571436</v>
       </c>
       <c r="E15">
-        <v>37.03526578</v>
+        <v>37.52102991</v>
       </c>
       <c r="F15">
-        <v>55.60238226</v>
+        <v>55.533924</v>
       </c>
       <c r="G15">
-        <v>17.51</v>
+        <v>13.89</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>7.509999999999998</v>
+        <v>3.890000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>689116</v>
+        <v>688383</v>
       </c>
       <c r="B16">
-        <v>636049</v>
+        <v>406145</v>
       </c>
       <c r="C16">
-        <v>37.03526578</v>
+        <v>37.52102991</v>
       </c>
       <c r="D16">
-        <v>55.60238226</v>
+        <v>55.533924</v>
       </c>
       <c r="E16">
-        <v>37.04438859</v>
+        <v>37.60926665</v>
       </c>
       <c r="F16">
-        <v>55.6013837</v>
+        <v>55.59638214</v>
       </c>
       <c r="G16">
-        <v>11.07</v>
+        <v>24.9</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>1.07</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>636049</v>
+        <v>406145</v>
       </c>
       <c r="B17">
-        <v>616776</v>
+        <v>679083</v>
       </c>
       <c r="C17">
-        <v>37.04438859</v>
+        <v>37.60926665</v>
       </c>
       <c r="D17">
-        <v>55.6013837</v>
+        <v>55.59638214</v>
       </c>
       <c r="E17">
-        <v>37.04434917</v>
+        <v>37.63582921</v>
       </c>
       <c r="F17">
-        <v>55.60139246</v>
+        <v>55.60385382</v>
       </c>
       <c r="G17">
-        <v>10.53</v>
+        <v>18.48</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>0.5299999999999994</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>616776</v>
+        <v>679083</v>
       </c>
       <c r="B18">
-        <v>661115</v>
+        <v>605378</v>
       </c>
       <c r="C18">
-        <v>37.04434917</v>
+        <v>37.63582921</v>
       </c>
       <c r="D18">
-        <v>55.60139246</v>
+        <v>55.60385382</v>
       </c>
       <c r="E18">
-        <v>37.04327616</v>
+        <v>37.64965575</v>
       </c>
       <c r="F18">
-        <v>55.59691208</v>
+        <v>55.59059225</v>
       </c>
       <c r="G18">
-        <v>10.99</v>
+        <v>18.45</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.9900000000000002</v>
+        <v>8.449999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>661115</v>
+        <v>605378</v>
       </c>
       <c r="B19">
-        <v>682293</v>
+        <v>607045</v>
       </c>
       <c r="C19">
-        <v>37.04327616</v>
+        <v>37.64965575</v>
       </c>
       <c r="D19">
-        <v>55.59691208</v>
+        <v>55.59059225</v>
       </c>
       <c r="E19">
-        <v>37.02682521</v>
+        <v>37.71408911</v>
       </c>
       <c r="F19">
-        <v>55.60375101</v>
+        <v>55.54772427</v>
       </c>
       <c r="G19">
-        <v>12.82</v>
+        <v>21.55</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>2.82</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>682293</v>
+        <v>607045</v>
       </c>
       <c r="B20">
-        <v>606137</v>
+        <v>683733</v>
       </c>
       <c r="C20">
-        <v>37.02682521</v>
+        <v>37.71408911</v>
       </c>
       <c r="D20">
-        <v>55.60375101</v>
+        <v>55.54772427</v>
       </c>
       <c r="E20">
-        <v>37.09994967</v>
+        <v>37.72008091</v>
       </c>
       <c r="F20">
-        <v>55.64281786</v>
+        <v>55.54343251</v>
       </c>
       <c r="G20">
-        <v>18.42</v>
+        <v>13.43</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>8.420000000000002</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>606137</v>
+        <v>683733</v>
       </c>
       <c r="B21">
-        <v>635733</v>
+        <v>608082</v>
       </c>
       <c r="C21">
-        <v>37.09994967</v>
+        <v>37.72008091</v>
       </c>
       <c r="D21">
-        <v>55.64281786</v>
+        <v>55.54343251</v>
       </c>
       <c r="E21">
-        <v>37.02461886</v>
+        <v>37.71903811</v>
       </c>
       <c r="F21">
-        <v>55.62804261</v>
+        <v>55.55167033</v>
       </c>
       <c r="G21">
-        <v>20.89</v>
+        <v>12.25</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>10.89</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>635733</v>
+        <v>608082</v>
       </c>
       <c r="B22">
-        <v>607722</v>
+        <v>689138</v>
       </c>
       <c r="C22">
-        <v>37.02461886</v>
+        <v>37.71903811</v>
       </c>
       <c r="D22">
-        <v>55.62804261</v>
+        <v>55.55167033</v>
       </c>
       <c r="E22">
-        <v>37.00884775</v>
+        <v>37.66126619</v>
       </c>
       <c r="F22">
-        <v>55.63028061</v>
+        <v>55.53761167</v>
       </c>
       <c r="G22">
-        <v>12.71</v>
+        <v>19.93</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>2.710000000000001</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>607722</v>
+        <v>689138</v>
       </c>
       <c r="B23">
-        <v>628613</v>
+        <v>636404</v>
       </c>
       <c r="C23">
-        <v>37.00884775</v>
+        <v>37.66126619</v>
       </c>
       <c r="D23">
-        <v>55.63028061</v>
+        <v>55.53761167</v>
       </c>
       <c r="E23">
-        <v>36.98243848</v>
+        <v>37.6146361</v>
       </c>
       <c r="F23">
-        <v>55.61874024</v>
+        <v>55.53170352</v>
       </c>
       <c r="G23">
-        <v>15.6</v>
+        <v>16.69</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>5.6</v>
+        <v>6.690000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>628613</v>
+        <v>636404</v>
       </c>
       <c r="B24">
-        <v>623324</v>
+        <v>676995</v>
       </c>
       <c r="C24">
-        <v>36.98243848</v>
+        <v>37.6146361</v>
       </c>
       <c r="D24">
-        <v>55.61874024</v>
+        <v>55.53170352</v>
       </c>
       <c r="E24">
-        <v>36.86563769</v>
+        <v>37.69127991</v>
       </c>
       <c r="F24">
-        <v>55.72729416</v>
+        <v>55.51300243</v>
       </c>
       <c r="G24">
-        <v>32.62</v>
+        <v>20.46</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>22.62</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>623324</v>
+        <v>676995</v>
       </c>
       <c r="B25">
-        <v>630526</v>
+        <v>634878</v>
       </c>
       <c r="C25">
-        <v>36.86563769</v>
+        <v>37.69127991</v>
       </c>
       <c r="D25">
-        <v>55.72729416</v>
+        <v>55.51300243</v>
       </c>
       <c r="E25">
-        <v>36.85670759</v>
+        <v>37.55146845</v>
       </c>
       <c r="F25">
-        <v>55.72972049</v>
+        <v>55.44994428</v>
       </c>
       <c r="G25">
-        <v>11.05</v>
+        <v>29.24</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
       <c r="I25">
-        <v>1.050000000000001</v>
+        <v>19.24</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>630526</v>
+        <v>634878</v>
       </c>
       <c r="B26">
-        <v>646772</v>
+        <v>682294</v>
       </c>
       <c r="C26">
-        <v>36.85670759</v>
+        <v>37.55146845</v>
       </c>
       <c r="D26">
-        <v>55.72972049</v>
+        <v>55.44994428</v>
       </c>
       <c r="E26">
-        <v>36.86164783</v>
+        <v>37.53939815</v>
       </c>
       <c r="F26">
-        <v>55.74007397</v>
+        <v>55.43404178</v>
       </c>
       <c r="G26">
-        <v>12.97</v>
+        <v>14.49</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26">
-        <v>2.970000000000001</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>646772</v>
+        <v>682294</v>
       </c>
       <c r="B27">
-        <v>667111</v>
+        <v>635726</v>
       </c>
       <c r="C27">
-        <v>36.86164783</v>
+        <v>37.53939815</v>
       </c>
       <c r="D27">
-        <v>55.74007397</v>
+        <v>55.43404178</v>
       </c>
       <c r="E27">
-        <v>36.87680579</v>
+        <v>37.5439267</v>
       </c>
       <c r="F27">
-        <v>55.74515436</v>
+        <v>55.42775261</v>
       </c>
       <c r="G27">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
       <c r="I27">
-        <v>2.199999999999999</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>667111</v>
+        <v>635726</v>
       </c>
       <c r="B28">
-        <v>662045</v>
+        <v>676981</v>
       </c>
       <c r="C28">
-        <v>36.87680579</v>
+        <v>37.5439267</v>
       </c>
       <c r="D28">
-        <v>55.74515436</v>
+        <v>55.42775261</v>
       </c>
       <c r="E28">
-        <v>36.87235607</v>
+        <v>37.54758808</v>
       </c>
       <c r="F28">
-        <v>55.72413206</v>
+        <v>55.42204155</v>
       </c>
       <c r="G28">
-        <v>14.35</v>
+        <v>12.66</v>
       </c>
       <c r="H28">
         <v>10</v>
       </c>
       <c r="I28">
-        <v>4.35</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>662045</v>
+        <v>676981</v>
       </c>
       <c r="B29">
-        <v>676404</v>
+        <v>634973</v>
       </c>
       <c r="C29">
-        <v>36.87235607</v>
+        <v>37.54758808</v>
       </c>
       <c r="D29">
-        <v>55.72413206</v>
+        <v>55.42204155</v>
       </c>
       <c r="E29">
-        <v>36.69340809</v>
+        <v>37.56405994</v>
       </c>
       <c r="F29">
-        <v>55.59896176</v>
+        <v>55.41088221</v>
       </c>
       <c r="G29">
-        <v>40.66</v>
+        <v>15.28</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
       <c r="I29">
-        <v>30.66</v>
+        <v>5.280000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>676404</v>
+        <v>634973</v>
       </c>
       <c r="B30">
-        <v>698968</v>
+        <v>634835</v>
       </c>
       <c r="C30">
-        <v>36.69340809</v>
+        <v>37.56405994</v>
       </c>
       <c r="D30">
-        <v>55.59896176</v>
+        <v>55.41088221</v>
       </c>
       <c r="E30">
-        <v>36.69272924</v>
+        <v>37.48642894</v>
       </c>
       <c r="F30">
-        <v>55.5817804</v>
+        <v>55.4227017</v>
       </c>
       <c r="G30">
-        <v>13.98</v>
+        <v>20.44</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
       <c r="I30">
-        <v>3.98</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>698968</v>
+        <v>634835</v>
       </c>
       <c r="B31">
-        <v>644729</v>
+        <v>627765</v>
       </c>
       <c r="C31">
-        <v>36.69272924</v>
+        <v>37.48642894</v>
       </c>
       <c r="D31">
-        <v>55.5817804</v>
+        <v>55.4227017</v>
       </c>
       <c r="E31">
-        <v>36.69845444</v>
+        <v>37.4814379</v>
       </c>
       <c r="F31">
-        <v>55.5572425</v>
+        <v>55.41846338</v>
       </c>
       <c r="G31">
-        <v>18.41</v>
+        <v>11.57</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31">
-        <v>8.41</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>644729</v>
+        <v>627765</v>
       </c>
       <c r="B32">
-        <v>663710</v>
+        <v>635295</v>
       </c>
       <c r="C32">
-        <v>36.69845444</v>
+        <v>37.4814379</v>
       </c>
       <c r="D32">
-        <v>55.5572425</v>
+        <v>55.41846338</v>
       </c>
       <c r="E32">
-        <v>36.48956619</v>
+        <v>37.54300697</v>
       </c>
       <c r="F32">
-        <v>55.58706226</v>
+        <v>55.47770248</v>
       </c>
       <c r="G32">
-        <v>31.23</v>
+        <v>26.02</v>
       </c>
       <c r="H32">
         <v>10</v>
       </c>
       <c r="I32">
-        <v>21.23</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>663710</v>
+        <v>635295</v>
       </c>
       <c r="B33">
-        <v>619236</v>
+        <v>644082</v>
       </c>
       <c r="C33">
-        <v>36.48956619</v>
+        <v>37.54300697</v>
       </c>
       <c r="D33">
-        <v>55.58706226</v>
+        <v>55.47770248</v>
       </c>
       <c r="E33">
-        <v>36.47504766</v>
+        <v>37.50731723</v>
       </c>
       <c r="F33">
-        <v>55.60036324</v>
+        <v>55.36663026</v>
       </c>
       <c r="G33">
-        <v>15.54</v>
+        <v>32.31</v>
       </c>
       <c r="H33">
         <v>10</v>
       </c>
       <c r="I33">
-        <v>5.539999999999999</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>619236</v>
+        <v>644082</v>
       </c>
       <c r="B34">
-        <v>687646</v>
+        <v>688349</v>
       </c>
       <c r="C34">
-        <v>36.47504766</v>
+        <v>37.50731723</v>
       </c>
       <c r="D34">
-        <v>55.60036324</v>
+        <v>55.36663026</v>
       </c>
       <c r="E34">
-        <v>36.50969943</v>
+        <v>37.33120726</v>
       </c>
       <c r="F34">
-        <v>55.62068042</v>
+        <v>55.44584055</v>
       </c>
       <c r="G34">
-        <v>14.94</v>
+        <v>40.17</v>
       </c>
       <c r="H34">
         <v>10</v>
       </c>
       <c r="I34">
-        <v>4.940000000000001</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>687646</v>
+        <v>688349</v>
       </c>
       <c r="B35">
-        <v>638411</v>
+        <v>629748</v>
       </c>
       <c r="C35">
-        <v>36.50969943</v>
+        <v>37.33120726</v>
       </c>
       <c r="D35">
-        <v>55.62068042</v>
+        <v>55.44584055</v>
       </c>
       <c r="E35">
-        <v>36.53806165</v>
+        <v>37.32710791</v>
       </c>
       <c r="F35">
-        <v>55.66964542</v>
+        <v>55.49085018</v>
       </c>
       <c r="G35">
-        <v>18.2</v>
+        <v>20.06</v>
       </c>
       <c r="H35">
         <v>10</v>
       </c>
       <c r="I35">
-        <v>8.199999999999999</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>638411</v>
+        <v>629748</v>
       </c>
       <c r="B36">
-        <v>687669</v>
+        <v>634938</v>
       </c>
       <c r="C36">
-        <v>36.53806165</v>
+        <v>37.32710791</v>
       </c>
       <c r="D36">
-        <v>55.66964542</v>
+        <v>55.49085018</v>
       </c>
       <c r="E36">
-        <v>36.37325592</v>
+        <v>37.30486807</v>
       </c>
       <c r="F36">
-        <v>55.54764106</v>
+        <v>55.48449093</v>
       </c>
       <c r="G36">
-        <v>39.37</v>
+        <v>14.82</v>
       </c>
       <c r="H36">
         <v>10</v>
       </c>
       <c r="I36">
-        <v>29.37</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>687669</v>
+        <v>634938</v>
       </c>
       <c r="B37">
-        <v>636713</v>
+        <v>682268</v>
       </c>
       <c r="C37">
-        <v>36.37325592</v>
+        <v>37.30486807</v>
       </c>
       <c r="D37">
-        <v>55.54764106</v>
+        <v>55.48449093</v>
       </c>
       <c r="E37">
-        <v>36.36866605</v>
+        <v>37.46819823</v>
       </c>
       <c r="F37">
-        <v>55.54491254</v>
+        <v>55.62029063</v>
       </c>
       <c r="G37">
-        <v>17.03</v>
+        <v>38.77</v>
       </c>
       <c r="H37">
         <v>10</v>
       </c>
       <c r="I37">
-        <v>7.030000000000001</v>
+        <v>28.77</v>
       </c>
     </row>
   </sheetData>
